--- a/Data-Analysis/AggregateStats.xlsx
+++ b/Data-Analysis/AggregateStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4b9ad30e75dec31/Courses/Documents/Github-Files/aco-dronefirefighting-project/Data-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{E9828D5D-DD6A-47B0-A404-DD2636EAB184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82724075-AEEF-480F-920E-B483083D51C9}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{E9828D5D-DD6A-47B0-A404-DD2636EAB184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F038345B-0B3D-4BC6-941D-E89DB5DC61F5}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{B32EA5A3-454E-403A-A2C2-780B24FC63B7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{B32EA5A3-454E-403A-A2C2-780B24FC63B7}"/>
   </bookViews>
   <sheets>
     <sheet name="AntCount Vs. Fires" sheetId="1" r:id="rId1"/>
@@ -38,22 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
-  <si>
-    <t>10 ants</t>
-  </si>
-  <si>
-    <t>20 ants</t>
-  </si>
-  <si>
-    <t>30 ants</t>
-  </si>
-  <si>
-    <t>40 ants</t>
-  </si>
-  <si>
-    <t>50 ants</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>10 fires</t>
   </si>
@@ -71,6 +56,51 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>10 Ants</t>
+  </si>
+  <si>
+    <t>10 Fires</t>
+  </si>
+  <si>
+    <t>20 Fires</t>
+  </si>
+  <si>
+    <t>30 Fires</t>
+  </si>
+  <si>
+    <t>40 Fires</t>
+  </si>
+  <si>
+    <t>50 Fires</t>
+  </si>
+  <si>
+    <t>20 Ants</t>
+  </si>
+  <si>
+    <t>30 Ants</t>
+  </si>
+  <si>
+    <t>40 Ants</t>
+  </si>
+  <si>
+    <t>50 Ants</t>
+  </si>
+  <si>
+    <t>0.1 Mutation Probability</t>
+  </si>
+  <si>
+    <t>0.05 Mutation Probability</t>
+  </si>
+  <si>
+    <t>0.15 Mutation Probability</t>
+  </si>
+  <si>
+    <t>0.2 Mutation Probability</t>
+  </si>
+  <si>
+    <t>0.25 Mutation Probability</t>
   </si>
 </sst>
 </file>
@@ -106,8 +136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,125 +461,126 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
         <v>1.6232740816326533E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2.4306777551020398E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>3.4983148979591844E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>4.3459265306122465E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>5.4084277551020403E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
         <v>3.0086699999999991E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5.1714653061224511E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>7.3148469387755113E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>9.4365130612244913E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.12194735714285715</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
         <v>4.486174285714286E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>8.3604304081632649E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.12109388571428573</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.15591417959183673</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.19932378775510198</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
         <v>6.0498540816326531E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.11263505102040819</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.16106139591836738</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.21602924897959186</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.26305059999999997</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
         <v>7.6381042857142853E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.136667706122449</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.21165926530612242</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.27832903877551024</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.32711274489795927</v>
       </c>
     </row>
@@ -557,128 +594,131 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="13.47265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
         <v>0.4</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.5</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>0.6</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>0.7</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>0.8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1.5529142857142899E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.40316632653061E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.40463387755102E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1.30643224489796E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1.35491510204082E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>3.1413312244898003E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.9248400000000001E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2.6416736734693899E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2.665E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2.77255918367347E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>4.3357630612244902E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>4.2626097959183699E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>4.3323232653061199E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>4.1662946938775501E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>4.1218430612244901E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>6.2031099999999999E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>5.7027148979591803E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5.5226561224489802E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5.8445359183673502E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>5.3622632653061199E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>7.2623834693877606E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>6.7804014285714295E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>6.8546275510204105E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>6.7492710204081596E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>6.8945093877551003E-2</v>
       </c>
     </row>
@@ -691,90 +731,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24078FBA-0729-41DB-BCBE-66C474B1490E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="16.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="16.734375" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1">
+      <c r="B1" s="1">
         <v>10</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>20</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.24951911034482799</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.58073638275862105</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.89491920344827602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.30314526896551702</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.77695733103448295</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.25926334137931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.32083104827586201</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.86515191379310297</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.57552557241379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.24951911034482799</v>
-      </c>
-      <c r="C2">
-        <v>0.58073638275862105</v>
-      </c>
-      <c r="D2">
-        <v>0.89491920344827602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0.30314526896551702</v>
-      </c>
-      <c r="C3">
-        <v>0.77695733103448295</v>
-      </c>
-      <c r="D3">
-        <v>1.25926334137931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>0.32083104827586201</v>
-      </c>
-      <c r="C4">
-        <v>0.86515191379310297</v>
-      </c>
-      <c r="D4">
-        <v>1.57552557241379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.330847313793103</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.93823227931034503</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1.8422576344827599</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.35128778275862099</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.98414351379310305</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.9133431344827601</v>
       </c>
     </row>
@@ -787,126 +830,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9AB456-623A-427B-8E70-42621B1A5847}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="17.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="17.20703125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1">
-        <v>0.05</v>
-      </c>
-      <c r="C1">
-        <v>0.1</v>
-      </c>
-      <c r="D1">
-        <v>0.15</v>
-      </c>
-      <c r="E1">
-        <v>0.2</v>
-      </c>
-      <c r="F1">
-        <v>0.25</v>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.24513595714285699</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.24095832244897999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.23100621224489801</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.23303749795918399</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.24184041020408201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.28910696530612201</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.28670407346938798</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.318224048979592</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.33245061428571399</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.30770893061224502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.31332392653061197</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.31539593673469402</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.33669664285714301</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.33484609387755099</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.32685332448979598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.24513595714285699</v>
-      </c>
-      <c r="C2">
-        <v>0.24095832244897999</v>
-      </c>
-      <c r="D2">
-        <v>0.23100621224489801</v>
-      </c>
-      <c r="E2">
-        <v>0.23303749795918399</v>
-      </c>
-      <c r="F2">
-        <v>0.24184041020408201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0.28910696530612201</v>
-      </c>
-      <c r="C3">
-        <v>0.28670407346938798</v>
-      </c>
-      <c r="D3">
-        <v>0.318224048979592</v>
-      </c>
-      <c r="E3">
-        <v>0.33245061428571399</v>
-      </c>
-      <c r="F3">
-        <v>0.30770893061224502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>0.31332392653061197</v>
-      </c>
-      <c r="C4">
-        <v>0.31539593673469402</v>
-      </c>
-      <c r="D4">
-        <v>0.33669664285714301</v>
-      </c>
-      <c r="E4">
-        <v>0.33484609387755099</v>
-      </c>
-      <c r="F4">
-        <v>0.32685332448979598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.31501143469387799</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.34230597755101999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.34348483265306101</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.35015517755102099</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.34159286122449001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.32018360204081597</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.33377065102040798</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.34796864285714302</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.349768132653061</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.337101371428571</v>
       </c>
     </row>
